--- a/Ipv4 táblázat 1.2.xlsx
+++ b/Ipv4 táblázat 1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanulo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC465A5-8CE6-42B2-8A34-33CB7D243F04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A24F3C-C4B4-4C5E-BA5F-CDCFF28FAA5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{1D9BF4B1-892E-4DB9-B299-444EB41A9B2D}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
-  <si>
-    <t>Ipv4 címzés</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
   <si>
     <t>R1</t>
   </si>
@@ -45,9 +42,6 @@
     <t>ASA</t>
   </si>
   <si>
-    <t>PC1</t>
-  </si>
-  <si>
     <t>PC2</t>
   </si>
   <si>
@@ -156,9 +150,6 @@
     <t>192.168.104.10</t>
   </si>
   <si>
-    <t>192.168.103.94</t>
-  </si>
-  <si>
     <t>10.10.10.6</t>
   </si>
   <si>
@@ -174,20 +165,77 @@
     <t>10.10.10.9</t>
   </si>
   <si>
-    <t>192.168.103.3</t>
-  </si>
-  <si>
     <t>10.10.10.1</t>
   </si>
   <si>
-    <t>192.168.103.1</t>
+    <t>Eszköznév</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>IPV4 address</t>
+  </si>
+  <si>
+    <t>Subnet mask</t>
+  </si>
+  <si>
+    <t>Default Gateway</t>
+  </si>
+  <si>
+    <t>IPV6 address</t>
+  </si>
+  <si>
+    <t>Tunnel0</t>
+  </si>
+  <si>
+    <t>G0/0/0.20</t>
+  </si>
+  <si>
+    <t>G0/0/0.10</t>
+  </si>
+  <si>
+    <t>G0/0/0.30</t>
+  </si>
+  <si>
+    <t>192.168.103.35</t>
+  </si>
+  <si>
+    <t>192.168.103.69</t>
+  </si>
+  <si>
+    <t>192.168.103.100</t>
+  </si>
+  <si>
+    <t>192.168.103.97</t>
+  </si>
+  <si>
+    <t>192.168.103.65</t>
+  </si>
+  <si>
+    <t>192.168.103.33</t>
+  </si>
+  <si>
+    <t>STANDBY</t>
+  </si>
+  <si>
+    <t>STANDBY1</t>
+  </si>
+  <si>
+    <t>192.168.103.70</t>
+  </si>
+  <si>
+    <t>PC3</t>
+  </si>
+  <si>
+    <t>2001:db8:acad:2::1/64</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,8 +270,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +373,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -393,11 +455,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -431,9 +495,6 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -447,6 +508,32 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -456,8 +543,8 @@
   <colors>
     <mruColors>
       <color rgb="FFFF99FF"/>
+      <color rgb="FFFF99CC"/>
       <color rgb="FFFF3399"/>
-      <color rgb="FFFF99CC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -768,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADDBFE31-E415-4F67-8E44-7A93DE031639}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,343 +867,484 @@
     <col min="2" max="2" width="17.109375" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="4" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="B2" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="41"/>
+      <c r="B3" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="41"/>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="45"/>
+      <c r="B7" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="46"/>
+      <c r="B8" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="40"/>
+      <c r="B10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="40"/>
+      <c r="B11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="33"/>
+      <c r="B18" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="1" t="s">
+      <c r="E18" s="32"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B28" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="30"/>
+      <c r="B29" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="E29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="3" t="s">
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="31"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
-      <c r="B11" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="31" t="s">
+      <c r="B30" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="36"/>
+      <c r="B31" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="31"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="12" t="s">
+      <c r="D31" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="36"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="36"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A9:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Ipv4 táblázat 1.2.xlsx
+++ b/Ipv4 táblázat 1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanulo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A24F3C-C4B4-4C5E-BA5F-CDCFF28FAA5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3255B27-3F45-4531-A4C4-B50B2719E27D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{1D9BF4B1-892E-4DB9-B299-444EB41A9B2D}"/>
   </bookViews>
@@ -383,7 +383,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -432,6 +432,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
@@ -447,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -461,7 +478,8 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -478,7 +496,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -514,10 +532,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,13 +545,24 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -858,7 +887,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,59 +900,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="40" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="43" t="s">
         <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="47" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="48" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="43" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="1" t="s">
         <v>56</v>
       </c>
@@ -933,11 +962,11 @@
       <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -947,55 +976,55 @@
       <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
-      <c r="B8" s="43" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1007,11 +1036,11 @@
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="2" t="s">
         <v>54</v>
       </c>
@@ -1021,11 +1050,11 @@
       <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="2" t="s">
         <v>56</v>
       </c>
@@ -1035,11 +1064,11 @@
       <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1049,11 +1078,11 @@
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1065,11 +1094,11 @@
       <c r="D13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1079,11 +1108,11 @@
       <c r="D14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1093,11 +1122,11 @@
       <c r="D15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1107,41 +1136,41 @@
       <c r="D16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="13"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="34"/>
+      <c r="B18" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="13"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="52"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="4"/>
@@ -1151,7 +1180,7 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="24" t="s">
         <v>66</v>
       </c>
       <c r="B20" s="5"/>
@@ -1167,7 +1196,7 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="6"/>
@@ -1183,23 +1212,23 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35" t="s">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="36" t="s">
         <v>29</v>
       </c>
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -1214,10 +1243,10 @@
       <c r="E23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="8"/>
+      <c r="F23" s="53"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="27" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -1232,10 +1261,10 @@
       <c r="E24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="54"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="28" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="10"/>
@@ -1245,11 +1274,11 @@
       <c r="D25" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="11"/>
@@ -1259,82 +1288,82 @@
       <c r="D26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="F27" s="57"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="14"/>
+      <c r="F28" s="58"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="31"/>
+      <c r="B29" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="14"/>
+      <c r="F29" s="58"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="36"/>
-      <c r="B31" s="37" t="s">
+      <c r="A31" s="37"/>
+      <c r="B31" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="7">
